--- a/zss.test/src/test/java/org/zkoss/zss/issue/book/772-long-text-boundary-pdf.xlsx
+++ b/zss.test/src/test/java/org/zkoss/zss/issue/book/772-long-text-boundary-pdf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>a2</t>
   </si>
@@ -27,7 +27,19 @@
     <t>long text that cross the cell boundary(A ~ E)</t>
   </si>
   <si>
-    <t>*Check if long text in G1 is correctly rendered</t>
+    <t>long text across right border</t>
+  </si>
+  <si>
+    <t>long text that cross the cell boundary(E3:I3)</t>
+  </si>
+  <si>
+    <t>*Check if long text in E3 is correctly rendered</t>
+  </si>
+  <si>
+    <t>*Check if long text in G1 is correctly rendered(across page; next page must be OK, too)</t>
+  </si>
+  <si>
+    <t>*Check if long text in F5 is correctly rendered(The partial border at F5 is intentional)</t>
   </si>
 </sst>
 </file>
@@ -51,10 +63,155 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -63,11 +220,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,32 +533,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="G1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="90">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="166.5" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickTop="1">
+      <c r="C5" s="1"/>
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickTop="1">
+      <c r="B7" s="11"/>
+      <c r="D7" s="5"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickTop="1"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
